--- a/Pseudo Code/getTrained.xlsx
+++ b/Pseudo Code/getTrained.xlsx
@@ -26,15 +26,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
-    <t>then return false</t>
-  </si>
-  <si>
     <t>else if</t>
   </si>
   <si>
-    <t>return true</t>
-  </si>
-  <si>
     <t>else</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>generate randomTrainVal(1-5)</t>
   </si>
   <si>
-    <t>randomTrainVal &lt;=2</t>
-  </si>
-  <si>
     <t>\\ if randomTrainVal is less than two player does not get trained this stops players reaching the maximum value too fast</t>
   </si>
   <si>
@@ -107,43 +98,52 @@
     <t>Begin if</t>
   </si>
   <si>
-    <t>playerMaxed(playerID) == true</t>
-  </si>
-  <si>
-    <t>then handle maxedPlayerException and retrun false</t>
-  </si>
-  <si>
     <t>\\ test if player can be trained and handling error associated with this problem</t>
   </si>
   <si>
-    <t>randomTrainVal = 3 or randomTrainVal = 4</t>
-  </si>
-  <si>
     <t>maxPlayerStat  int</t>
   </si>
   <si>
-    <t>then generate randomHealthLose(1-4) - 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">\\generate health losed due to trainging but don’t allow player to get max value as he hasn’t earned the max value of training </t>
   </si>
   <si>
     <t>\\this method helps insure that the player statistic does not go over the maximun allowed</t>
   </si>
   <si>
-    <t>getInjured(heath int, playerId int)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">then generate randomHealthLose(3-4) </t>
-  </si>
-  <si>
-    <t>addTrainVal(randomTrainVal int, playerID int, position String)</t>
-  </si>
-  <si>
-    <t>health = getPlayerHealth(playerID int - randomHealthLose</t>
-  </si>
-  <si>
     <t>\\checks if the players health is too low to be able to play if it is the player is then injured and then sets the players health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   playerMaxed(playerID) == true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   then handle maxedPlayerException and retrun false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   randomTrainVal &lt;=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   then return false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   randomTrainVal = 3 or randomTrainVal = 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   then generate randomHealthLose(1-4) - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   addTrainVal(randomTrainVal int, playerID int, position String)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   health = getPlayerHealth(playerID int - randomHealthLose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   getInjured(heath int, playerId int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   return true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   then generate randomHealthLose(3-4) </t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -524,25 +524,25 @@
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -560,19 +560,19 @@
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -594,25 +594,25 @@
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -622,31 +622,31 @@
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -667,154 +667,154 @@
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Pseudo Code/getTrained.xlsx
+++ b/Pseudo Code/getTrained.xlsx
@@ -499,14 +499,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
